--- a/docs/oncocore-RelatedCancerCondition-extension.xlsx
+++ b/docs/oncocore-RelatedCancerCondition-extension.xlsx
@@ -191,7 +191,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerCondition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-DistantMetastases]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerCondition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-Metastases], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-Tumor]]}
 </t>
   </si>
   <si>
